--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cml\Desktop\Wireless-Sensor-Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -280,11 +280,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -294,13 +294,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>No. ACK's</a:t>
+              <a:t>No. ACK's received per packet sent</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> received per packet sent</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -318,11 +313,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -347,28 +342,16 @@
             <c:v>Scenario 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -691,28 +674,16 @@
             <c:v>Scenario 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1017,28 +988,16 @@
             <c:v>Scenario 3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -1205,28 +1164,16 @@
             <c:v>Scenario 4</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -1394,18 +1341,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-52994384"/>
-        <c:axId val="-52985680"/>
+        <c:axId val="2113348352"/>
+        <c:axId val="2113351616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-52994384"/>
+        <c:axId val="2113348352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1413,7 +1374,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1426,10 +1387,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Packets sent</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1447,7 +1407,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1469,7 +1429,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1477,6 +1437,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1500,7 +1461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52985680"/>
+        <c:crossAx val="2113351616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1508,7 +1469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-52985680"/>
+        <c:axId val="2113351616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,6 +1482,7 @@
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1535,7 +1497,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1568,7 +1530,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1590,8 +1552,15 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1615,7 +1584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52994384"/>
+        <c:crossAx val="2113348352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1628,7 +1597,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1717,11 +1686,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1731,13 +1700,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>No. DATA's</a:t>
+              <a:t>No. DATA's received per packet sent</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> received per packet sent</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1755,11 +1719,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1784,28 +1748,16 @@
             <c:v>Scenario 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2122,28 +2074,16 @@
             <c:v>Scenario 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2448,28 +2388,16 @@
             <c:v>Scenario 3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -2630,28 +2558,16 @@
             <c:v>Scenario 4</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -2819,18 +2735,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-52993840"/>
-        <c:axId val="-52987312"/>
+        <c:axId val="2113352704"/>
+        <c:axId val="2113353248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-52993840"/>
+        <c:axId val="2113352704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2838,7 +2768,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2851,10 +2781,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Packets sent</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2872,7 +2801,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2894,7 +2823,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2902,6 +2831,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2925,7 +2855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52987312"/>
+        <c:crossAx val="2113353248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2933,7 +2863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-52987312"/>
+        <c:axId val="2113353248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,6 +2876,7 @@
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2960,7 +2891,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2993,7 +2924,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3015,8 +2946,15 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3040,7 +2978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-52993840"/>
+        <c:crossAx val="2113352704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3053,7 +2991,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3142,11 +3080,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3156,13 +3094,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>No.</a:t>
+              <a:t>No. packets relayed per packet sent</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> packets relayed per packet sent</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3180,11 +3113,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3209,11 +3142,11 @@
             <c:v>Scenario 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3541,11 +3474,11 @@
             <c:v>Scenario 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3834,11 +3767,11 @@
             <c:v>Scenario 3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4166,11 +4099,11 @@
             <c:v>Scenario 4</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4492,7 +4425,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4501,16 +4433,31 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-25540512"/>
-        <c:axId val="-25539968"/>
+        <c:axId val="2113338560"/>
+        <c:axId val="2113348896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-25540512"/>
+        <c:axId val="2113338560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4518,7 +4465,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4532,13 +4479,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Packets</a:t>
+                  <a:t>Packets sent</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> sent</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4556,7 +4498,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4573,12 +4515,12 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -4586,6 +4528,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4609,7 +4552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-25539968"/>
+        <c:crossAx val="2113348896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4617,7 +4560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-25539968"/>
+        <c:axId val="2113348896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,6 +4573,7 @@
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4644,7 +4588,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4658,13 +4602,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Packets</a:t>
+                  <a:t>Packets relayed</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> relayed</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4682,7 +4621,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4704,8 +4643,15 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4729,7 +4675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-25540512"/>
+        <c:crossAx val="2113338560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4742,7 +4688,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4831,11 +4777,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4845,11 +4791,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>No.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> packets not acknowledged in time </a:t>
+              <a:t>No. packets not acknowledged in time </a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -4857,10 +4799,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>per packet sent</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4878,11 +4819,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4907,11 +4848,11 @@
             <c:v>Scenario 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -5239,11 +5180,11 @@
             <c:v>Scenario 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -5553,11 +5494,11 @@
             <c:v>Scenario 3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -5885,11 +5826,11 @@
             <c:v>Scenario 4</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -6219,16 +6160,31 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-90670464"/>
-        <c:axId val="-207454560"/>
+        <c:axId val="2113353792"/>
+        <c:axId val="2113349984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-90670464"/>
+        <c:axId val="2113353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -6236,7 +6192,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6250,13 +6206,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Packets</a:t>
+                  <a:t>Packets sent</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> sent</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6274,7 +6225,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6291,12 +6242,12 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -6304,6 +6255,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6327,7 +6279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-207454560"/>
+        <c:crossAx val="2113349984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6335,7 +6287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-207454560"/>
+        <c:axId val="2113349984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6348,6 +6300,7 @@
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -6362,7 +6315,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6376,13 +6329,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Packets</a:t>
+                  <a:t>Packets relayed</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> relayed</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6400,7 +6348,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6422,8 +6370,15 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6447,7 +6402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-90670464"/>
+        <c:crossAx val="2113353792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6460,7 +6415,2127 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NO.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> PACKETS RELAYED TO NORTH</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>AND SOUTH NODE PER  PACKETS RELAYED</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scenario 2 relayed to north node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$57:$H$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4145</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5126</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5824</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6424</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7360</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8458</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8766</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8956</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9726</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10054</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10433</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11319</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11779</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12048</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12762</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13015</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13765</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16180</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$57:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2266</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2443</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2851</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3344</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3395</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3647</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4041</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4162</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4293</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4430</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4483</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4673</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4768</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5037</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5477</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5589</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5798</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5988</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6061</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6342</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6589</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7992</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Scenario 2 realyed to south node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$57:$H$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2743</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3485</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3827</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4145</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5126</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5824</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6424</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6854</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7360</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8458</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8766</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8956</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9300</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9726</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10054</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10433</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10638</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11319</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11779</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12048</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12762</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13015</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13765</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16180</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$57:$D$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2247</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2683</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2884</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3274</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3435</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4112</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4417</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4604</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4870</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5243</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5473</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5870</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5966</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5984</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6302</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6459</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6713</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6774</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6954</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7057</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7176</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8188</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="190422784"/>
+        <c:axId val="190423872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190422784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Packets </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> RELAYED</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190423872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190423872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Packets relayed TO STATION</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190422784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NO.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> PACKETS RELAYED TO NORTH</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>AND SOUTH NODE PER  PACKETS RELAYED</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scenario 4 relayed to north node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$153:$H$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2736</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4264</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5066</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5239</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5785</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6257</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6469</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6643</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6866</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7090</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7331</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7508</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7634</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7859</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8315</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8630</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8768</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9013</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9175</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9264</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9523</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$153:$C$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1128</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1148</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1172</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Scenario 4 realyed to south node</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$H$153:$H$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2736</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3015</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3354</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3806</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4264</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5066</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5239</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5785</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6257</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6469</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6643</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6866</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7090</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7331</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7508</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7634</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7859</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8315</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8630</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8768</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9013</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9175</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9264</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9523</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$153:$D$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2591</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3091</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3692</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3847</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4206</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4390</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4539</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4790</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5239</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5465</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5657</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6206</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6419</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6576</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6678</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6883</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7097</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7271</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7424</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7530</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7640</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7865</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8068</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8311</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="190430400"/>
+        <c:axId val="190424416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190430400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Packets </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> RELAYED</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190424416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190424416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Packets relayed TO STATION</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> S</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190430400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6688,8 +8763,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6700,7 +8855,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6713,7 +8868,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -6721,6 +8876,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6746,7 +8902,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6790,39 +8946,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -6830,7 +8996,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6838,19 +9004,23 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6875,15 +9045,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6893,13 +9061,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -6920,14 +9088,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6939,14 +9106,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -6957,12 +9123,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6977,6 +9137,7 @@
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6991,14 +9152,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7010,14 +9171,10 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7029,14 +9186,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7073,11 +9229,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7088,14 +9253,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -7105,11 +9269,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7121,12 +9285,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
+      <a:ln w="12700" cap="rnd"/>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
@@ -7146,7 +9305,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7155,8 +9314,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7172,6 +9331,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7181,18 +9352,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7203,7 +9368,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7216,7 +9381,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -7224,6 +9389,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7249,7 +9415,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7293,39 +9459,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -7333,7 +9509,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -7341,19 +9517,23 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7378,15 +9558,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7396,13 +9574,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -7423,14 +9601,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7442,14 +9619,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -7460,12 +9636,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -7480,6 +9650,7 @@
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7494,14 +9665,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7513,14 +9684,10 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7532,14 +9699,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -7576,11 +9742,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -7591,14 +9766,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -7608,11 +9782,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7624,12 +9798,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
+      <a:ln w="12700" cap="rnd"/>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
@@ -7649,7 +9818,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7658,8 +9827,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7675,6 +9844,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7684,18 +9865,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7706,7 +9881,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7719,7 +9894,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -7727,6 +9902,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7752,7 +9928,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7796,39 +9972,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -7836,7 +10022,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -7844,19 +10030,23 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7881,15 +10071,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7908,14 +10096,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7927,14 +10114,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -7946,14 +10132,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -7964,12 +10149,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -7984,6 +10163,7 @@
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7998,14 +10178,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8017,14 +10197,10 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -8036,14 +10212,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8080,13 +10255,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -8094,6 +10266,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8106,14 +10279,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -8123,11 +10295,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8139,12 +10311,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
+      <a:ln w="12700" cap="rnd"/>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
@@ -8170,14 +10337,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8191,6 +10357,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8200,18 +10378,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8222,7 +10394,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -8235,7 +10407,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -8243,6 +10415,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8268,7 +10441,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8312,39 +10485,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -8352,7 +10535,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -8360,19 +10543,23 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -8397,15 +10584,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8424,14 +10609,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8443,14 +10627,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8462,14 +10645,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -8480,12 +10662,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -8500,6 +10676,7 @@
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8514,14 +10691,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8533,14 +10710,10 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx1"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -8552,14 +10725,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -8596,13 +10768,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -8610,6 +10779,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8622,14 +10792,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -8639,11 +10808,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8655,12 +10824,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
+      <a:ln w="12700" cap="rnd"/>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
@@ -8686,14 +10850,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8707,6 +10870,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8716,12 +10891,1032 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="rnd"/>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8733,13 +11928,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>532279</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>68355</xdr:rowOff>
+      <xdr:rowOff>79561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>212912</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8793,15 +11988,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>577103</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>34737</xdr:rowOff>
+      <xdr:colOff>543485</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8823,15 +12018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>100851</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>140073</xdr:colOff>
+      <xdr:colOff>537883</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>77321</xdr:rowOff>
+      <xdr:rowOff>10085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8847,6 +12042,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>274543</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>66116</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>44820</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17226,7 +20485,7 @@
   <dimension ref="A3:H203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="AK30" sqref="AK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
